--- a/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_se_calibrated.xlsx
+++ b/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_se_calibrated.xlsx
@@ -595,112 +595,112 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>52.85678323</v>
+        <v>32.38718373</v>
       </c>
       <c r="K2">
-        <v>55.650463694</v>
+        <v>33.93561508</v>
       </c>
       <c r="L2">
-        <v>58.444144158</v>
+        <v>34.9982768</v>
       </c>
       <c r="M2">
-        <v>61.237824622</v>
+        <v>37.2045415</v>
       </c>
       <c r="N2">
-        <v>64.031505086</v>
+        <v>39.60004706</v>
       </c>
       <c r="O2">
-        <v>66.82518555</v>
+        <v>40.7687658</v>
       </c>
       <c r="P2">
-        <v>71.545478694</v>
+        <v>42.21058595</v>
       </c>
       <c r="Q2">
-        <v>76.26577183800001</v>
+        <v>44.14721689</v>
       </c>
       <c r="R2">
-        <v>80.986064982</v>
+        <v>46.50334192</v>
       </c>
       <c r="S2">
-        <v>85.706358126</v>
+        <v>53.89737328</v>
       </c>
       <c r="T2">
-        <v>90.42665126999999</v>
+        <v>62.46705563</v>
       </c>
       <c r="U2">
-        <v>97.910814196</v>
+        <v>72.39931747999999</v>
       </c>
       <c r="V2">
-        <v>105.394977122</v>
+        <v>83.91080896</v>
       </c>
       <c r="W2">
-        <v>112.879140048</v>
+        <v>97.25262758</v>
       </c>
       <c r="X2">
-        <v>120.363302974</v>
+        <v>112.7157954</v>
       </c>
       <c r="Y2">
-        <v>127.8474659</v>
+        <v>130.6376068</v>
       </c>
       <c r="Z2">
-        <v>137.95047706</v>
+        <v>140.0435145</v>
       </c>
       <c r="AA2">
-        <v>148.05348822</v>
+        <v>150.1266476</v>
       </c>
       <c r="AB2">
-        <v>158.15649938</v>
+        <v>160.9357662</v>
       </c>
       <c r="AC2">
-        <v>168.25951054</v>
+        <v>172.5231414</v>
       </c>
       <c r="AD2">
-        <v>178.3625217</v>
+        <v>184.9448075</v>
       </c>
       <c r="AE2">
-        <v>192.36525402</v>
+        <v>199.3705025</v>
       </c>
       <c r="AF2">
-        <v>206.36798634</v>
+        <v>214.9214017</v>
       </c>
       <c r="AG2">
-        <v>220.37071866</v>
+        <v>231.6852711</v>
       </c>
       <c r="AH2">
-        <v>234.37345098</v>
+        <v>249.7567222</v>
       </c>
       <c r="AI2">
-        <v>248.3761833</v>
+        <v>269.2377465</v>
       </c>
       <c r="AJ2">
-        <v>267.59934458</v>
+        <v>292.3921927</v>
       </c>
       <c r="AK2">
-        <v>286.82250586</v>
+        <v>317.5379213</v>
       </c>
       <c r="AL2">
-        <v>306.04566714</v>
+        <v>344.8461825</v>
       </c>
       <c r="AM2">
-        <v>325.26882842</v>
+        <v>374.5029542</v>
       </c>
       <c r="AN2">
-        <v>344.4919897</v>
+        <v>406.7102083</v>
       </c>
       <c r="AO2">
-        <v>370.51701006</v>
+        <v>441.6872862</v>
       </c>
       <c r="AP2">
-        <v>396.54203042</v>
+        <v>479.6723928</v>
       </c>
       <c r="AQ2">
-        <v>422.56705078</v>
+        <v>520.9242186</v>
       </c>
       <c r="AR2">
-        <v>448.59207114</v>
+        <v>565.7237014</v>
       </c>
       <c r="AS2">
-        <v>474.6170915</v>
+        <v>614.3759397</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -1574,112 +1574,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="K10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="L10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="M10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="N10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="O10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="P10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="Q10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="R10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="S10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="T10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="U10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="V10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="W10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="X10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="Y10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="Z10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AA10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AB10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AC10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AD10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AE10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AF10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AG10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AH10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AI10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AJ10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AK10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AL10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AM10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AN10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AO10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AP10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AQ10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AR10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
       <c r="AS10">
-        <v>4.812222222222221</v>
+        <v>4.812222222</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -1696,112 +1696,112 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>29792913.3918</v>
+        <v>29792913.39</v>
       </c>
       <c r="K11">
-        <v>30678944.10048</v>
+        <v>30678944.1</v>
       </c>
       <c r="L11">
-        <v>31617586.24752</v>
+        <v>31617586.25</v>
       </c>
       <c r="M11">
-        <v>32570631.93232</v>
+        <v>32570631.93</v>
       </c>
       <c r="N11">
-        <v>33485072.91093</v>
+        <v>33485072.91</v>
       </c>
       <c r="O11">
         <v>34326790.86</v>
       </c>
       <c r="P11">
-        <v>34862528.7300855</v>
+        <v>34862528.73</v>
       </c>
       <c r="Q11">
-        <v>35608154.9077594</v>
+        <v>35608154.91</v>
       </c>
       <c r="R11">
-        <v>36353781.0854333</v>
+        <v>36353781.09</v>
       </c>
       <c r="S11">
-        <v>37099407.2631072</v>
+        <v>37099407.26</v>
       </c>
       <c r="T11">
-        <v>37845033.440781</v>
+        <v>37845033.44</v>
       </c>
       <c r="U11">
-        <v>38597538.5124566</v>
+        <v>38597538.51</v>
       </c>
       <c r="V11">
-        <v>39350043.58413211</v>
+        <v>39350043.58</v>
       </c>
       <c r="W11">
-        <v>40102548.6558077</v>
+        <v>40102548.66</v>
       </c>
       <c r="X11">
-        <v>40855053.72748329</v>
+        <v>40855053.73</v>
       </c>
       <c r="Y11">
-        <v>41607558.7991588</v>
+        <v>41607558.8</v>
       </c>
       <c r="Z11">
-        <v>42340492.481542</v>
+        <v>42340492.48</v>
       </c>
       <c r="AA11">
-        <v>43073426.1639252</v>
+        <v>43073426.16</v>
       </c>
       <c r="AB11">
-        <v>43806359.8463084</v>
+        <v>43806359.85</v>
       </c>
       <c r="AC11">
-        <v>44539293.5286916</v>
+        <v>44539293.53</v>
       </c>
       <c r="AD11">
-        <v>45272227.2110747</v>
+        <v>45272227.21</v>
       </c>
       <c r="AE11">
-        <v>45949578.0948395</v>
+        <v>45949578.09</v>
       </c>
       <c r="AF11">
-        <v>46626928.9786042</v>
+        <v>46626928.98</v>
       </c>
       <c r="AG11">
-        <v>47304279.8623689</v>
+        <v>47304279.86</v>
       </c>
       <c r="AH11">
-        <v>47981630.7461337</v>
+        <v>47981630.75</v>
       </c>
       <c r="AI11">
-        <v>48658981.6298984</v>
+        <v>48658981.63</v>
       </c>
       <c r="AJ11">
-        <v>49257728.0433904</v>
+        <v>49257728.04</v>
       </c>
       <c r="AK11">
-        <v>49856474.4568824</v>
+        <v>49856474.46</v>
       </c>
       <c r="AL11">
-        <v>50455220.8703744</v>
+        <v>50455220.87</v>
       </c>
       <c r="AM11">
-        <v>51053967.2838664</v>
+        <v>51053967.28</v>
       </c>
       <c r="AN11">
-        <v>51652713.6973583</v>
+        <v>51652713.7</v>
       </c>
       <c r="AO11">
-        <v>52154666.72488</v>
+        <v>52154666.72</v>
       </c>
       <c r="AP11">
-        <v>52656619.7524017</v>
+        <v>52656619.75</v>
       </c>
       <c r="AQ11">
-        <v>53158572.7799233</v>
+        <v>53158572.78</v>
       </c>
       <c r="AR11">
-        <v>53660525.807445</v>
+        <v>53660525.81</v>
       </c>
       <c r="AS11">
-        <v>54162478.8349667</v>
+        <v>54162478.83</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1818,112 +1818,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>8432533.608200001</v>
+        <v>8432533.607999999</v>
       </c>
       <c r="K12">
-        <v>8970228.89952</v>
+        <v>8970228.9</v>
       </c>
       <c r="L12">
-        <v>9549001.75248</v>
+        <v>9549001.752</v>
       </c>
       <c r="M12">
-        <v>10158400.06768</v>
+        <v>10158400.07</v>
       </c>
       <c r="N12">
-        <v>10784514.08907</v>
+        <v>10784514.09</v>
       </c>
       <c r="O12">
         <v>11414209.14</v>
       </c>
       <c r="P12">
-        <v>11987230.9039145</v>
+        <v>11987230.9</v>
       </c>
       <c r="Q12">
-        <v>12630043.9002406</v>
+        <v>12630043.9</v>
       </c>
       <c r="R12">
-        <v>13272856.8965667</v>
+        <v>13272856.9</v>
       </c>
       <c r="S12">
-        <v>13915669.8928928</v>
+        <v>13915669.89</v>
       </c>
       <c r="T12">
-        <v>14558482.889219</v>
+        <v>14558482.89</v>
       </c>
       <c r="U12">
-        <v>15317480.6875434</v>
+        <v>15317480.69</v>
       </c>
       <c r="V12">
-        <v>16076478.4858679</v>
+        <v>16076478.49</v>
       </c>
       <c r="W12">
-        <v>16835476.2841923</v>
+        <v>16835476.28</v>
       </c>
       <c r="X12">
-        <v>17594474.0825168</v>
+        <v>17594474.08</v>
       </c>
       <c r="Y12">
-        <v>18353471.8808412</v>
+        <v>18353471.88</v>
       </c>
       <c r="Z12">
-        <v>19231050.432458</v>
+        <v>19231050.43</v>
       </c>
       <c r="AA12">
-        <v>20108628.9840748</v>
+        <v>20108628.98</v>
       </c>
       <c r="AB12">
-        <v>20986207.5356916</v>
+        <v>20986207.54</v>
       </c>
       <c r="AC12">
-        <v>21863786.0873084</v>
+        <v>21863786.09</v>
       </c>
       <c r="AD12">
-        <v>22741364.6389253</v>
+        <v>22741364.64</v>
       </c>
       <c r="AE12">
-        <v>23730211.4231605</v>
+        <v>23730211.42</v>
       </c>
       <c r="AF12">
-        <v>24719058.2073958</v>
+        <v>24719058.21</v>
       </c>
       <c r="AG12">
-        <v>25707904.9916311</v>
+        <v>25707904.99</v>
       </c>
       <c r="AH12">
-        <v>26696751.7758663</v>
+        <v>26696751.78</v>
       </c>
       <c r="AI12">
-        <v>27685598.5601016</v>
+        <v>27685598.56</v>
       </c>
       <c r="AJ12">
-        <v>28778693.2106096</v>
+        <v>28778693.21</v>
       </c>
       <c r="AK12">
-        <v>29871787.8611176</v>
+        <v>29871787.86</v>
       </c>
       <c r="AL12">
-        <v>30964882.5116256</v>
+        <v>30964882.51</v>
       </c>
       <c r="AM12">
-        <v>32057977.1621336</v>
+        <v>32057977.16</v>
       </c>
       <c r="AN12">
-        <v>33151071.8126416</v>
+        <v>33151071.81</v>
       </c>
       <c r="AO12">
-        <v>34339031.89712</v>
+        <v>34339031.9</v>
       </c>
       <c r="AP12">
-        <v>35526991.9815983</v>
+        <v>35526991.98</v>
       </c>
       <c r="AQ12">
-        <v>36714952.0660766</v>
+        <v>36714952.07</v>
       </c>
       <c r="AR12">
-        <v>37902912.150555</v>
+        <v>37902912.15</v>
       </c>
       <c r="AS12">
-        <v>39090872.2350333</v>
+        <v>39090872.24</v>
       </c>
     </row>
   </sheetData>

--- a/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_se_calibrated.xlsx
+++ b/ssp_modeling/transformations/templates/calibrated/uganda/model_input_variables_uganda_se_calibrated.xlsx
@@ -621,85 +621,85 @@
         <v>46.50334192</v>
       </c>
       <c r="S2">
-        <v>56.53109005</v>
+        <v>53.89737328</v>
       </c>
       <c r="T2">
-        <v>68.72117165</v>
+        <v>62.46705563</v>
       </c>
       <c r="U2">
-        <v>83.5398615</v>
+        <v>72.39931747999999</v>
       </c>
       <c r="V2">
-        <v>101.5539795</v>
+        <v>83.91080896</v>
       </c>
       <c r="W2">
-        <v>123.4525719</v>
+        <v>97.25262758</v>
       </c>
       <c r="X2">
-        <v>150.0732673</v>
+        <v>112.7157954</v>
       </c>
       <c r="Y2">
-        <v>182.4343162</v>
+        <v>130.6376068</v>
       </c>
       <c r="Z2">
-        <v>199.2018542</v>
+        <v>140.0435145</v>
       </c>
       <c r="AA2">
-        <v>217.5104967</v>
+        <v>150.1266476</v>
       </c>
       <c r="AB2">
-        <v>237.5018864</v>
+        <v>160.9357662</v>
       </c>
       <c r="AC2">
-        <v>259.3306848</v>
+        <v>172.5231414</v>
       </c>
       <c r="AD2">
-        <v>283.165768</v>
+        <v>184.9448075</v>
       </c>
       <c r="AE2">
-        <v>321.6038221</v>
+        <v>199.3705025</v>
       </c>
       <c r="AF2">
-        <v>365.2596113</v>
+        <v>214.9214017</v>
       </c>
       <c r="AG2">
-        <v>414.841412</v>
+        <v>231.6852711</v>
       </c>
       <c r="AH2">
-        <v>471.1536446</v>
+        <v>249.7567222</v>
       </c>
       <c r="AI2">
-        <v>535.1099249</v>
+        <v>269.2377465</v>
       </c>
       <c r="AJ2">
-        <v>584.2918781</v>
+        <v>292.3921927</v>
       </c>
       <c r="AK2">
-        <v>637.9941446</v>
+        <v>317.5379213</v>
       </c>
       <c r="AL2">
-        <v>696.6321865</v>
+        <v>344.8461825</v>
       </c>
       <c r="AM2">
-        <v>760.6596507</v>
+        <v>374.5029542</v>
       </c>
       <c r="AN2">
-        <v>830.5718792</v>
+        <v>406.7102083</v>
       </c>
       <c r="AO2">
-        <v>912.1946695</v>
+        <v>443.314127</v>
       </c>
       <c r="AP2">
-        <v>1001.838776</v>
+        <v>483.2123985</v>
       </c>
       <c r="AQ2">
-        <v>1100.292478</v>
+        <v>526.7015143</v>
       </c>
       <c r="AR2">
-        <v>1208.421521</v>
+        <v>574.1046506</v>
       </c>
       <c r="AS2">
-        <v>1327.176729</v>
+        <v>625.7740692</v>
       </c>
     </row>
     <row r="3" spans="1:45">
